--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/results/Die Gassenhauer.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/results/Die Gassenhauer.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="40">
   <si>
     <t>firstName</t>
   </si>
@@ -85,7 +85,52 @@
     <t>Trox</t>
   </si>
   <si>
+    <t>Lukas</t>
+  </si>
+  <si>
+    <t>Koch</t>
+  </si>
+  <si>
     <t>checker</t>
+  </si>
+  <si>
+    <t>Björn</t>
+  </si>
+  <si>
+    <t>Bender</t>
+  </si>
+  <si>
+    <t>Marcel</t>
+  </si>
+  <si>
+    <t>Dirk</t>
+  </si>
+  <si>
+    <t>Annette</t>
+  </si>
+  <si>
+    <t>Hillebrand</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Zlatko</t>
+  </si>
+  <si>
+    <t>Mihajlovic</t>
+  </si>
+  <si>
+    <t>Bernd</t>
+  </si>
+  <si>
+    <t>Rosen</t>
+  </si>
+  <si>
+    <t>Timo</t>
+  </si>
+  <si>
+    <t>Nitschmann</t>
   </si>
 </sst>
 </file>
@@ -173,11 +218,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -234,26 +279,26 @@
         <v>12</v>
       </c>
       <c r="E2" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F2" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G2" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="H2" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I2" s="3">
         <v>0.0</v>
       </c>
       <c r="J2" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="3">
@@ -270,26 +315,26 @@
         <v>12</v>
       </c>
       <c r="E3" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F3" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G3" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H3" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I3" s="3">
         <v>0.0</v>
       </c>
       <c r="J3" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
     </row>
     <row r="4">
@@ -306,26 +351,26 @@
         <v>12</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H4" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I4" s="3">
         <v>0.0</v>
       </c>
       <c r="J4" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="5">
@@ -342,26 +387,26 @@
         <v>12</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H5" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I5" s="3">
         <v>0.0</v>
       </c>
       <c r="J5" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="6">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="6">
@@ -378,26 +423,26 @@
         <v>12</v>
       </c>
       <c r="E6" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="F6" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G6" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H6" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I6" s="3">
         <v>0.0</v>
       </c>
       <c r="J6" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="6">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="7">
@@ -414,26 +459,26 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H7" s="3">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I7" s="3">
         <v>0.0</v>
       </c>
       <c r="J7" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="6">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="8">
@@ -450,26 +495,26 @@
         <v>12</v>
       </c>
       <c r="E8" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F8" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G8" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H8" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I8" s="3">
         <v>0.0</v>
       </c>
       <c r="J8" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="6">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="9">
@@ -486,26 +531,26 @@
         <v>12</v>
       </c>
       <c r="E9" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F9" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="G9" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H9" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I9" s="3">
         <v>0.0</v>
       </c>
       <c r="J9" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="6">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="10">
@@ -522,26 +567,26 @@
         <v>12</v>
       </c>
       <c r="E10" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F10" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G10" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H10" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I10" s="3">
         <v>0.0</v>
       </c>
       <c r="J10" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="6">
-        <v>0.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="11">
@@ -558,26 +603,26 @@
         <v>12</v>
       </c>
       <c r="E11" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="F11" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G11" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I11" s="3">
         <v>0.0</v>
       </c>
       <c r="J11" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="6">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="12">
@@ -594,26 +639,26 @@
         <v>12</v>
       </c>
       <c r="E12" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F12" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G12" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="H12" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I12" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J12" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="6">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="13">
@@ -630,26 +675,26 @@
         <v>12</v>
       </c>
       <c r="E13" s="3">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="F13" s="3">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="G13" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H13" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="I13" s="3">
         <v>0.0</v>
       </c>
       <c r="J13" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="6">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="14">
@@ -666,26 +711,26 @@
         <v>12</v>
       </c>
       <c r="E14" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="F14" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G14" s="3">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="H14" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I14" s="3">
         <v>0.0</v>
       </c>
       <c r="J14" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="6">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="15">
@@ -702,26 +747,26 @@
         <v>12</v>
       </c>
       <c r="E15" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F15" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G15" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H15" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I15" s="3">
         <v>0.0</v>
       </c>
       <c r="J15" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="6">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="16">
@@ -738,26 +783,26 @@
         <v>12</v>
       </c>
       <c r="E16" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F16" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G16" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="H16" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I16" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="6">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="17">
@@ -774,26 +819,26 @@
         <v>12</v>
       </c>
       <c r="E17" s="3">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="F17" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G17" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H17" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I17" s="3">
         <v>0.0</v>
       </c>
       <c r="J17" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6">
-        <v>0.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="18">
@@ -810,26 +855,26 @@
         <v>12</v>
       </c>
       <c r="E18" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F18" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G18" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H18" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I18" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J18" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="6">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
     </row>
     <row r="19">
@@ -846,26 +891,26 @@
         <v>12</v>
       </c>
       <c r="E19" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="F19" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="G19" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H19" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I19" s="3">
         <v>0.0</v>
       </c>
       <c r="J19" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="20">
@@ -882,26 +927,26 @@
         <v>12</v>
       </c>
       <c r="E20" s="3">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="F20" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G20" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="H20" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I20" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J20" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="6">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="21">
@@ -918,26 +963,26 @@
         <v>12</v>
       </c>
       <c r="E21" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="F21" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="G21" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H21" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I21" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="6">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="22">
@@ -954,26 +999,26 @@
         <v>12</v>
       </c>
       <c r="E22" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F22" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G22" s="3">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="H22" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="I22" s="3">
         <v>0.0</v>
       </c>
       <c r="J22" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="5"/>
       <c r="L22" s="6">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="23">
@@ -990,26 +1035,26 @@
         <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F23" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G23" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H23" s="3">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="I23" s="3">
         <v>0.0</v>
       </c>
       <c r="J23" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="6">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="24">
@@ -1026,26 +1071,26 @@
         <v>12</v>
       </c>
       <c r="E24" s="3">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="F24" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G24" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H24" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I24" s="3">
         <v>0.0</v>
       </c>
       <c r="J24" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="6">
-        <v>0.0</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="25">
@@ -1062,26 +1107,26 @@
         <v>12</v>
       </c>
       <c r="E25" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F25" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G25" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H25" s="3">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="I25" s="3">
         <v>0.0</v>
       </c>
       <c r="J25" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="6">
-        <v>0.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="26">
@@ -1098,26 +1143,26 @@
         <v>12</v>
       </c>
       <c r="E26" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="F26" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G26" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H26" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I26" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J26" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="6">
-        <v>0.0</v>
+        <v>95.0</v>
       </c>
     </row>
     <row r="27">
@@ -1134,26 +1179,26 @@
         <v>12</v>
       </c>
       <c r="E27" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F27" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="G27" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H27" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I27" s="3">
         <v>0.0</v>
       </c>
       <c r="J27" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="6">
-        <v>0.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="28">
@@ -1170,26 +1215,26 @@
         <v>12</v>
       </c>
       <c r="E28" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="F28" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G28" s="3">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="H28" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I28" s="3">
         <v>0.0</v>
       </c>
       <c r="J28" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="6">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="29">
@@ -1206,282 +1251,314 @@
         <v>12</v>
       </c>
       <c r="E29" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F29" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G29" s="3">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="H29" s="3">
-        <v>0.0</v>
+        <v>21.0</v>
       </c>
       <c r="I29" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J29" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="6">
-        <v>0.0</v>
+        <v>101.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C30" s="3">
         <v>1.0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E30" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F30" s="3">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G30" s="3">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="H30" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="I30" s="3">
         <v>0.0</v>
       </c>
       <c r="J30" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="6">
-        <v>0.0</v>
+        <v>73.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C31" s="3">
         <v>1.0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E31" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="F31" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G31" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H31" s="3">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="I31" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J31" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="6">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C32" s="3">
         <v>2.0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E32" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="F32" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="G32" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H32" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I32" s="3">
         <v>0.0</v>
       </c>
       <c r="J32" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="6">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C33" s="3">
         <v>2.0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E33" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F33" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G33" s="3">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="H33" s="3">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="I33" s="3">
         <v>0.0</v>
       </c>
       <c r="J33" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="6">
-        <v>0.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C34" s="3">
         <v>3.0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E34" s="3">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="F34" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G34" s="3">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="H34" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I34" s="3">
         <v>0.0</v>
       </c>
       <c r="J34" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="5"/>
       <c r="L34" s="6">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="C35" s="3">
         <v>3.0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E35" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F35" s="3">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="G35" s="3">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="H35" s="3">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="I35" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J35" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="6">
-        <v>0.0</v>
+        <v>103.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C36" s="3">
         <v>4.0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E36" s="3">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="F36" s="3">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G36" s="3">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="H36" s="3">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c r="I36" s="3">
         <v>0.0</v>
       </c>
       <c r="J36" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="6">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C37" s="3">
         <v>4.0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E37" s="3">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="F37" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G37" s="3">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="H37" s="3">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="I37" s="3">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J37" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="6">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="38">
